--- a/Scripts/parameters_output_27035.xlsx
+++ b/Scripts/parameters_output_27035.xlsx
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>7755985.631631523</v>
+        <v>4004025.234007496</v>
       </c>
       <c r="H7">
-        <v>48086.5709109517</v>
+        <v>49833.11007312435</v>
       </c>
       <c r="I7">
-        <v>1.69</v>
+        <v>2.25</v>
       </c>
       <c r="J7">
-        <v>131109.8714162797</v>
+        <v>90083.21388830256</v>
       </c>
     </row>
     <row r="8" spans="1:10">
